--- a/k_means_example.xlsx
+++ b/k_means_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wu3ty/lectures/data-science/infomgmt/code/work/clustering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wu3ty/lectures/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ADA9C3-4E51-584E-8136-B951A645ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF734895-F901-B147-80BC-875A003B9A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="20200" xr2:uid="{7D809DF1-95F0-DF42-A898-EA37C3E46173}"/>
   </bookViews>
@@ -56,10 +56,10 @@
     <t>k3</t>
   </si>
   <si>
-    <t>Datenset</t>
-  </si>
-  <si>
-    <t>Initiate Cluster Positionen</t>
+    <t>Initial Centroid Positions</t>
+  </si>
+  <si>
+    <t>Dataset</t>
   </si>
 </sst>
 </file>
@@ -132,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +172,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -278,7 +278,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,7 +420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="270" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -504,7 +504,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -569,48 +569,24 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/k_means_example.xlsx
+++ b/k_means_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wu3ty/lectures/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF734895-F901-B147-80BC-875A003B9A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5E3CFC-5FAD-7446-AE98-F98838736693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="20200" xr2:uid="{7D809DF1-95F0-DF42-A898-EA37C3E46173}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="270" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -491,10 +491,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
